--- a/2022_debrands_by_state.xlsx
+++ b/2022_debrands_by_state.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Projects\2022\Misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CBA7FD1-0BC6-419F-B076-0BEF16E0FAAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9576BB70-4AD8-4C3D-A40F-FB50467F7791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,15 +23,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
-    <t>LOCATION_STATE</t>
-  </si>
-  <si>
-    <t>STATE_NAME</t>
-  </si>
-  <si>
-    <t>COUNT(*)</t>
-  </si>
-  <si>
     <t>AL</t>
   </si>
   <si>
@@ -200,6 +191,15 @@
               and l.location_state=a.state_abbr_x000D_
               group by l.location_state,a.state_name_x000D_
               order by l.location_state</t>
+  </si>
+  <si>
+    <t>ST</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Debrands</t>
   </si>
 </sst>
 </file>
@@ -588,33 +588,33 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K12" sqref="K12"/>
+      <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>13</v>
@@ -622,10 +622,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>13</v>
@@ -633,10 +633,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>9</v>
@@ -644,10 +644,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>21</v>
@@ -655,10 +655,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <v>20</v>
@@ -666,10 +666,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C7">
         <v>15</v>
@@ -677,10 +677,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -688,10 +688,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -699,10 +699,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -710,10 +710,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -721,10 +721,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C12">
         <v>3</v>
@@ -732,10 +732,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C13">
         <v>4</v>
@@ -743,10 +743,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C14">
         <v>5</v>
@@ -754,10 +754,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C15">
         <v>20</v>
@@ -765,10 +765,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -776,10 +776,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C17">
         <v>3</v>
@@ -787,10 +787,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C18">
         <v>16</v>
@@ -798,10 +798,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>7</v>
@@ -809,10 +809,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -820,10 +820,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C21">
         <v>6</v>
@@ -831,10 +831,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C22">
         <v>10</v>
@@ -842,10 +842,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C23">
         <v>31</v>
@@ -853,10 +853,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C24">
         <v>15</v>
@@ -864,10 +864,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -875,10 +875,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C26">
         <v>17</v>
@@ -886,10 +886,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B27" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -913,7 +913,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/2022_debrands_by_state.xlsx
+++ b/2022_debrands_by_state.xlsx
@@ -5,10 +5,10 @@
   <workbookPr checkCompatibility="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Projects\2022\Misc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\2022\Misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9576BB70-4AD8-4C3D-A40F-FB50467F7791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9508DB36-8297-4639-86DB-BA322AD47F01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="60">
   <si>
     <t>AL</t>
   </si>
@@ -199,14 +199,26 @@
     <t>State</t>
   </si>
   <si>
-    <t>Debrands</t>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>2022YTD</t>
+  </si>
+  <si>
+    <t>Southern</t>
+  </si>
+  <si>
+    <t>Central</t>
+  </si>
+  <si>
+    <t>Northeast</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -215,8 +227,30 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="9"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Segoe UI"/>
       <family val="2"/>
@@ -243,9 +277,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -584,314 +621,396 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:C1"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="3">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    </row>
+    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="3">
         <v>3</v>
       </c>
-      <c r="C3">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="3">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="3">
         <v>5</v>
       </c>
-      <c r="C4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="3">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="3">
         <v>10</v>
       </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7">
+    </row>
+    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="3">
         <v>17</v>
       </c>
-      <c r="C10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B27" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27">
+      <c r="C27" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="3">
         <v>1</v>
       </c>
     </row>
